--- a/Apuntes_PAS/JavaEE_Translations.xlsx
+++ b/Apuntes_PAS/JavaEE_Translations.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>INGLÉS</t>
   </si>
@@ -91,6 +91,12 @@
   </si>
   <si>
     <t>probable, posible, probablemente, posiblemente</t>
+  </si>
+  <si>
+    <t>Nonetheless</t>
+  </si>
+  <si>
+    <t>no obstante</t>
   </si>
 </sst>
 </file>
@@ -444,10 +450,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,6 +561,14 @@
       </c>
       <c r="B10" t="s">
         <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
